--- a/BackTest/2020-01-19 BackTest BCD.xlsx
+++ b/BackTest/2020-01-19 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8603.539803749996</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,17 +484,11 @@
         <v>8144.908903749996</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>780.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
       </c>
@@ -523,17 +517,11 @@
         <v>18765.27200375</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" t="n">
-        <v>780</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -566,11 +554,7 @@
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -603,11 +587,7 @@
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -640,11 +620,7 @@
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -677,11 +653,7 @@
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -714,11 +686,7 @@
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -751,11 +719,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -788,11 +752,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -825,11 +785,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -862,11 +818,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -899,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -936,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -973,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1010,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1047,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1084,11 +1016,7 @@
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1121,11 +1049,7 @@
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1158,11 +1082,7 @@
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1195,11 +1115,7 @@
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1232,11 +1148,7 @@
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1269,11 +1181,7 @@
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1306,11 +1214,7 @@
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1343,11 +1247,7 @@
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1380,11 +1280,7 @@
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1413,16 +1309,14 @@
         <v>32305.67214888</v>
       </c>
       <c r="H28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
       <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
@@ -1481,7 +1375,7 @@
         <v>28759.06590609</v>
       </c>
       <c r="H30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1547,7 +1441,7 @@
         <v>26760.06810609</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1580,7 +1474,7 @@
         <v>27579.93180609</v>
       </c>
       <c r="H33" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1613,7 +1507,7 @@
         <v>27445.83180609</v>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1646,7 +1540,7 @@
         <v>28580.3317633</v>
       </c>
       <c r="H35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1679,7 +1573,7 @@
         <v>34794.28246433999</v>
       </c>
       <c r="H36" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1712,7 +1606,7 @@
         <v>43551.56943313999</v>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1745,7 +1639,7 @@
         <v>39436.17103314</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1778,7 +1672,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1811,7 +1705,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1844,7 +1738,7 @@
         <v>38553.72441908</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1943,7 +1837,7 @@
         <v>59610.38165385</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2009,7 +1903,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2075,7 +1969,7 @@
         <v>68014.40415988</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2141,7 +2035,7 @@
         <v>65448.25235988</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2306,7 +2200,7 @@
         <v>59393.54253361001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2339,7 +2233,7 @@
         <v>59385.54253361001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2372,7 +2266,7 @@
         <v>59385.54253361001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2405,7 +2299,7 @@
         <v>58921.76473361001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2438,7 +2332,7 @@
         <v>58921.76473361001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2471,7 +2365,7 @@
         <v>61340.98153361001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2504,7 +2398,7 @@
         <v>61340.98153361001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2537,7 +2431,7 @@
         <v>65830.59543361001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2570,7 +2464,7 @@
         <v>65586.66533361001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2603,7 +2497,7 @@
         <v>67666.66533361001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2636,7 +2530,7 @@
         <v>65535.12093361001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2702,7 +2596,7 @@
         <v>61034.20523361001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2735,7 +2629,7 @@
         <v>61584.57513361001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2768,7 +2662,7 @@
         <v>60701.22413361001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2834,7 +2728,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2867,7 +2761,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -3296,7 +3190,7 @@
         <v>62702.90663361</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3329,7 +3223,7 @@
         <v>62702.90663361</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3362,7 +3256,7 @@
         <v>66958.21163361</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3395,7 +3289,7 @@
         <v>66890.21163361</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3428,7 +3322,7 @@
         <v>64660.12083361</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3461,7 +3355,7 @@
         <v>63474.97623361</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3494,7 +3388,7 @@
         <v>62289.83153361001</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3527,7 +3421,7 @@
         <v>62291.83153361001</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3560,7 +3454,7 @@
         <v>62291.83153361001</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3593,7 +3487,7 @@
         <v>62294.73153361001</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3626,7 +3520,7 @@
         <v>62294.73153361001</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3659,7 +3553,7 @@
         <v>62294.73153361001</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3725,7 +3619,7 @@
         <v>59344.09174417001</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3791,7 +3685,7 @@
         <v>59890.59964417</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3857,7 +3751,7 @@
         <v>63513.56174417</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3890,7 +3784,7 @@
         <v>63513.56174417</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3923,7 +3817,7 @@
         <v>63513.56174417</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3956,7 +3850,7 @@
         <v>65013.56174417</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3989,7 +3883,7 @@
         <v>62013.54334417</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -4022,7 +3916,7 @@
         <v>63385.49674417</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -4055,7 +3949,7 @@
         <v>61200.97464417</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4121,7 +4015,7 @@
         <v>60879.29004417</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4187,7 +4081,7 @@
         <v>57553.58204417</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4220,7 +4114,7 @@
         <v>57553.58204417</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4253,7 +4147,7 @@
         <v>60618.07214417</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4286,7 +4180,7 @@
         <v>60553.47214417</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4319,7 +4213,7 @@
         <v>59573.47214417</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4550,7 +4444,7 @@
         <v>61858.29424417</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -6398,7 +6292,7 @@
         <v>45507.64583345001</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -9434,7 +9328,7 @@
         <v>18679.56596209</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9467,7 +9361,7 @@
         <v>21029.53636209</v>
       </c>
       <c r="H272" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9500,7 +9394,7 @@
         <v>21185.89216209</v>
       </c>
       <c r="H273" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9533,7 +9427,7 @@
         <v>21145.59216209</v>
       </c>
       <c r="H274" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9566,7 +9460,7 @@
         <v>20368.83236209</v>
       </c>
       <c r="H275" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9599,7 +9493,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9632,7 +9526,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H277" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9665,7 +9559,7 @@
         <v>23212.57648425001</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9698,7 +9592,7 @@
         <v>23414.90328425001</v>
       </c>
       <c r="H279" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9797,7 +9691,7 @@
         <v>23654.73878425001</v>
       </c>
       <c r="H282" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9830,7 +9724,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H283" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9863,7 +9757,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9896,7 +9790,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9929,7 +9823,7 @@
         <v>23459.25858425</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9962,7 +9856,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9995,7 +9889,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10028,7 +9922,7 @@
         <v>22596.06678425</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10061,7 +9955,7 @@
         <v>25373.71941807</v>
       </c>
       <c r="H290" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11909,7 +11803,7 @@
         <v>46501.10125604001</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12008,7 +11902,7 @@
         <v>46501.10125604001</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12338,7 +12232,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12371,7 +12265,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12404,7 +12298,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12437,7 +12331,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12470,7 +12364,7 @@
         <v>33251.79508312001</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12503,7 +12397,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12536,7 +12430,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12569,7 +12463,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12635,7 +12529,7 @@
         <v>33209.05941275002</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12668,7 +12562,7 @@
         <v>33332.69937318002</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12701,7 +12595,7 @@
         <v>33098.15637318002</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12734,7 +12628,7 @@
         <v>34051.91087318002</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12767,7 +12661,7 @@
         <v>34130.45627318003</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12800,7 +12694,7 @@
         <v>33903.50537318002</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12833,7 +12727,7 @@
         <v>33913.14349438002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12866,7 +12760,7 @@
         <v>33481.52619438002</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12899,7 +12793,7 @@
         <v>33492.52755593002</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12932,7 +12826,7 @@
         <v>33754.43169438002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -13097,7 +12991,7 @@
         <v>33571.89039438003</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13229,7 +13123,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13262,7 +13156,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13295,7 +13189,7 @@
         <v>33216.47269106002</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13328,7 +13222,7 @@
         <v>33177.05279106002</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13361,7 +13255,7 @@
         <v>35007.97497057002</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13394,7 +13288,7 @@
         <v>35007.97497057002</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13427,7 +13321,7 @@
         <v>34493.44387057002</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13460,7 +13354,7 @@
         <v>34489.67067057002</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13493,7 +13387,7 @@
         <v>33457.37077057002</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13526,7 +13420,7 @@
         <v>27542.66027057002</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13559,7 +13453,7 @@
         <v>25014.21207057002</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13592,7 +13486,7 @@
         <v>25014.21207057002</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13625,7 +13519,7 @@
         <v>25700.32787057002</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13658,7 +13552,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13691,7 +13585,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13724,7 +13618,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13757,7 +13651,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13790,7 +13684,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13823,7 +13717,7 @@
         <v>25061.80327057002</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13856,7 +13750,7 @@
         <v>25058.53407057003</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13889,7 +13783,7 @@
         <v>24515.06897057002</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -13955,7 +13849,7 @@
         <v>6792.883170570025</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14021,7 +13915,7 @@
         <v>3996.747870570025</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14087,7 +13981,7 @@
         <v>645.466170570025</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -17585,11 +17479,17 @@
         <v>-143356.1465181299</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>759.9</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17618,11 +17518,17 @@
         <v>-143356.1465181299</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>759</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17651,11 +17557,17 @@
         <v>-143564.8429621099</v>
       </c>
       <c r="H520" t="n">
-        <v>0</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>759</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17684,11 +17596,17 @@
         <v>-143683.9768621099</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>758.9</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17717,11 +17635,17 @@
         <v>-140759.5442621099</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>752</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17750,7 +17674,7 @@
         <v>-138836.8999621099</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I523" t="n">
         <v>760</v>
@@ -17758,7 +17682,7 @@
       <c r="J523" t="inlineStr"/>
       <c r="K523" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L523" t="n">
@@ -17789,7 +17713,7 @@
         <v>-140154.4353621099</v>
       </c>
       <c r="H524" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I524" t="n">
         <v>761.3</v>
@@ -17828,9 +17752,11 @@
         <v>-139703.9679621099</v>
       </c>
       <c r="H525" t="n">
-        <v>0</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>757.1</v>
+      </c>
       <c r="J525" t="inlineStr"/>
       <c r="K525" t="inlineStr">
         <is>
@@ -17865,9 +17791,11 @@
         <v>-144802.5176621099</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>773.9</v>
+      </c>
       <c r="J526" t="inlineStr"/>
       <c r="K526" t="inlineStr">
         <is>
@@ -18161,9 +18089,11 @@
         <v>-147599.0284621099</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>759</v>
+      </c>
       <c r="J534" t="inlineStr"/>
       <c r="K534" t="inlineStr">
         <is>
@@ -19049,11 +18979,9 @@
         <v>-146894.5411957999</v>
       </c>
       <c r="H558" t="n">
-        <v>2</v>
-      </c>
-      <c r="I558" t="n">
-        <v>766.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
@@ -19125,11 +19053,9 @@
         <v>-148621.4703957999</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
-      </c>
-      <c r="I560" t="n">
-        <v>767.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
@@ -19164,11 +19090,9 @@
         <v>-148615.6989672299</v>
       </c>
       <c r="H561" t="n">
-        <v>2</v>
-      </c>
-      <c r="I561" t="n">
-        <v>766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
@@ -19203,11 +19127,9 @@
         <v>-149970.8897386599</v>
       </c>
       <c r="H562" t="n">
-        <v>2</v>
-      </c>
-      <c r="I562" t="n">
-        <v>770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
@@ -20241,9 +20163,11 @@
         <v>-160172.9385888499</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>771.2</v>
+      </c>
       <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
@@ -20278,9 +20202,11 @@
         <v>-160106.9385888499</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>765.2</v>
+      </c>
       <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
@@ -20315,9 +20241,11 @@
         <v>-161446.9385888499</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>766.2</v>
+      </c>
       <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
@@ -20352,7 +20280,7 @@
         <v>-161425.9734888499</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I593" t="n">
         <v>762.1</v>
@@ -20391,7 +20319,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I594" t="n">
         <v>763</v>
@@ -20430,7 +20358,7 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I595" t="n">
         <v>762</v>
@@ -20469,7 +20397,7 @@
         <v>-169476.4773888499</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I596" t="n">
         <v>762</v>
@@ -20508,9 +20436,11 @@
         <v>-168477.9868963999</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>755.6</v>
+      </c>
       <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
@@ -20545,9 +20475,11 @@
         <v>-168427.9868963999</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>768.9</v>
+      </c>
       <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
@@ -20693,9 +20625,11 @@
         <v>-169201.8695963999</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
@@ -20730,9 +20664,11 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
@@ -20767,9 +20703,11 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>770</v>
+      </c>
       <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
@@ -20804,9 +20742,11 @@
         <v>-168040.9081963999</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>770</v>
+      </c>
       <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
@@ -20915,9 +20855,11 @@
         <v>-170076.8787963999</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>758.1</v>
+      </c>
       <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
@@ -20952,9 +20894,11 @@
         <v>-168506.8787963999</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>758</v>
+      </c>
       <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
@@ -20989,9 +20933,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>758.1</v>
+      </c>
       <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
@@ -21026,9 +20972,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
-      </c>
-      <c r="I611" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I611" t="n">
+        <v>758.2</v>
+      </c>
       <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
@@ -21063,9 +21011,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>758.2</v>
+      </c>
       <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
@@ -21100,9 +21050,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
-      </c>
-      <c r="I613" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I613" t="n">
+        <v>758.2</v>
+      </c>
       <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
@@ -21137,9 +21089,11 @@
         <v>-168502.4256963999</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>758.2</v>
+      </c>
       <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
@@ -21174,9 +21128,11 @@
         <v>-168503.4256963999</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
-      </c>
-      <c r="I615" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I615" t="n">
+        <v>765.6</v>
+      </c>
       <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
@@ -21211,9 +21167,11 @@
         <v>-169288.4256963999</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
-      </c>
-      <c r="I616" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I616" t="n">
+        <v>759.1</v>
+      </c>
       <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
@@ -21248,9 +21206,11 @@
         <v>-169227.8769963999</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
-      </c>
-      <c r="I617" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I617" t="n">
+        <v>759</v>
+      </c>
       <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
@@ -21285,9 +21245,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>764.9</v>
+      </c>
       <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
@@ -21322,9 +21284,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>759</v>
+      </c>
       <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
@@ -21359,9 +21323,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>759</v>
+      </c>
       <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
@@ -21396,9 +21362,11 @@
         <v>-172021.4564963999</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>759</v>
+      </c>
       <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
@@ -21433,9 +21401,11 @@
         <v>-172124.4564963999</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
-      </c>
-      <c r="I622" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I622" t="n">
+        <v>755.6</v>
+      </c>
       <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
@@ -21470,7 +21440,7 @@
         <v>-172124.4564963999</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I623" t="n">
         <v>753.6</v>
@@ -21509,7 +21479,7 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I624" t="n">
         <v>753.6</v>
@@ -21548,9 +21518,11 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
-      </c>
-      <c r="I625" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I625" t="n">
+        <v>762.6</v>
+      </c>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21585,9 +21557,11 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
-      </c>
-      <c r="I626" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I626" t="n">
+        <v>762.6</v>
+      </c>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21622,9 +21596,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>762.6</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21659,9 +21635,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21696,9 +21674,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21733,9 +21713,11 @@
         <v>-170835.1996963999</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21770,7 +21752,7 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I631" t="n">
         <v>755.1</v>
@@ -21809,9 +21791,11 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>755</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21846,9 +21830,11 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>755</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21883,9 +21869,11 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>764.6</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21920,9 +21908,11 @@
         <v>-168390.9035963998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>764.6</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22882,9 +22872,11 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>760</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23696,9 +23688,11 @@
         <v>-151378.6269312098</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I683" t="n">
+        <v>766.1</v>
+      </c>
       <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
@@ -23918,9 +23912,11 @@
         <v>-148571.9932617398</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>763</v>
+      </c>
       <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
@@ -24547,9 +24543,11 @@
         <v>-155850.2746617398</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>764</v>
+      </c>
       <c r="J706" t="inlineStr"/>
       <c r="K706" t="inlineStr">
         <is>
@@ -24880,11 +24878,9 @@
         <v>-155165.1268617398</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
-      </c>
-      <c r="I715" t="n">
-        <v>764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
       <c r="K715" t="inlineStr">
         <is>
@@ -24993,9 +24989,11 @@
         <v>-155794.5636617398</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>761</v>
+      </c>
       <c r="J718" t="inlineStr"/>
       <c r="K718" t="inlineStr">
         <is>
@@ -25030,9 +25028,11 @@
         <v>-155693.5636617398</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>761</v>
+      </c>
       <c r="J719" t="inlineStr"/>
       <c r="K719" t="inlineStr">
         <is>
@@ -25067,9 +25067,11 @@
         <v>-156975.0607064097</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>761.1</v>
+      </c>
       <c r="J720" t="inlineStr"/>
       <c r="K720" t="inlineStr">
         <is>
@@ -25104,9 +25106,11 @@
         <v>-156975.0607064097</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>761</v>
+      </c>
       <c r="J721" t="inlineStr"/>
       <c r="K721" t="inlineStr">
         <is>
@@ -25141,9 +25145,11 @@
         <v>-157475.0607064097</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>761</v>
+      </c>
       <c r="J722" t="inlineStr"/>
       <c r="K722" t="inlineStr">
         <is>
@@ -25178,9 +25184,11 @@
         <v>-156422.6881064097</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>760</v>
+      </c>
       <c r="J723" t="inlineStr"/>
       <c r="K723" t="inlineStr">
         <is>
@@ -25215,9 +25223,11 @@
         <v>-156421.2881064097</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>763</v>
+      </c>
       <c r="J724" t="inlineStr"/>
       <c r="K724" t="inlineStr">
         <is>
@@ -25289,9 +25299,11 @@
         <v>-156422.2166064098</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>763</v>
+      </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr">
         <is>
@@ -25474,11 +25486,9 @@
         <v>-157397.1280064098</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
-      </c>
-      <c r="I731" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
@@ -25513,11 +25523,9 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
-      </c>
-      <c r="I732" t="n">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
@@ -25552,11 +25560,9 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
-      </c>
-      <c r="I733" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
       <c r="K733" t="inlineStr">
         <is>
@@ -25591,7 +25597,7 @@
         <v>-157344.8359064098</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I734" t="n">
         <v>760</v>
@@ -25630,7 +25636,7 @@
         <v>-159656.0553064098</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I735" t="n">
         <v>760.1</v>
@@ -25669,7 +25675,7 @@
         <v>-163888.5685064098</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I736" t="n">
         <v>760</v>
@@ -25708,7 +25714,7 @@
         <v>-168420.8874064098</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I737" t="n">
         <v>758</v>
@@ -25747,7 +25753,7 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I738" t="n">
         <v>757.1</v>
@@ -25786,11 +25792,9 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
-      </c>
-      <c r="I739" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
@@ -25825,7 +25829,7 @@
         <v>-167054.7280064098</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I740" t="n">
         <v>760.1</v>
@@ -25864,11 +25868,9 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
-      </c>
-      <c r="I741" t="n">
-        <v>760.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
       <c r="K741" t="inlineStr">
         <is>
@@ -25903,11 +25905,9 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
-      </c>
-      <c r="I742" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
       <c r="K742" t="inlineStr">
         <is>
@@ -25942,7 +25942,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I743" t="n">
         <v>760.1</v>
@@ -25981,7 +25981,7 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I744" t="n">
         <v>760.5</v>
@@ -26020,7 +26020,7 @@
         <v>-166408.3377064098</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I745" t="n">
         <v>760.5</v>
@@ -26059,7 +26059,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I746" t="n">
         <v>758.1</v>
@@ -26098,7 +26098,7 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I747" t="n">
         <v>760</v>
@@ -26137,11 +26137,9 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -26176,7 +26174,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I749" t="n">
         <v>760</v>
@@ -26215,7 +26213,7 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I750" t="n">
         <v>761.9</v>
@@ -26254,7 +26252,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I751" t="n">
         <v>761.9</v>
@@ -26293,7 +26291,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I752" t="n">
         <v>762.3</v>
@@ -26332,7 +26330,7 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I753" t="n">
         <v>762.3</v>
@@ -26371,7 +26369,7 @@
         <v>-160623.6516064098</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I754" t="n">
         <v>762.3</v>
@@ -26410,7 +26408,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I755" t="n">
         <v>761.9</v>
@@ -26449,7 +26447,7 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I756" t="n">
         <v>761</v>
@@ -26488,7 +26486,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I757" t="n">
         <v>761</v>
@@ -26527,7 +26525,7 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I758" t="n">
         <v>765</v>
@@ -26566,7 +26564,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I759" t="n">
         <v>765</v>
@@ -26605,7 +26603,7 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I760" t="n">
         <v>766</v>
@@ -26644,11 +26642,9 @@
         <v>-160316.4419064098</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
-      </c>
-      <c r="I761" t="n">
-        <v>766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
       <c r="K761" t="inlineStr">
         <is>
@@ -26683,11 +26679,9 @@
         <v>-160315.4419064098</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
-      </c>
-      <c r="I762" t="n">
-        <v>770.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
       <c r="K762" t="inlineStr">
         <is>
@@ -26722,11 +26716,9 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="n">
-        <v>772.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
       <c r="K763" t="inlineStr">
         <is>
@@ -26761,11 +26753,9 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
-      </c>
-      <c r="I764" t="n">
-        <v>767.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
       <c r="K764" t="inlineStr">
         <is>
@@ -26800,11 +26790,9 @@
         <v>-160422.8790064098</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
-      </c>
-      <c r="I765" t="n">
-        <v>767.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
       <c r="K765" t="inlineStr">
         <is>
@@ -26839,11 +26827,9 @@
         <v>-160337.6790064098</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="n">
-        <v>765.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
       <c r="K766" t="inlineStr">
         <is>
@@ -26878,7 +26864,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767" t="n">
         <v>767.2</v>
@@ -26917,7 +26903,7 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I768" t="n">
         <v>764.2</v>
@@ -26934,6 +26920,6 @@
       <c r="M768" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BCD.xlsx
+++ b/BackTest/2020-01-19 BackTest BCD.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>8603.539803749996</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8144.908903749996</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1561.848946739997</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5123.526446739997</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>14519.48054888</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>28853.58969167</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>28759.06590609</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>26760.06810609</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>27579.93180609</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>27445.83180609</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>28580.3317633</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>34794.28246433999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>43551.56943313999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>59393.54253361001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>59385.54253361001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>58921.76473361001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>58921.76473361001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>61340.98153361001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>61340.98153361001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>65830.59543361001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>65586.66533361001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>67666.66533361001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>65535.12093361001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>61034.20523361001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>61584.57513361001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>60701.22413361001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>62702.90663361</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>62702.90663361</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>66958.21163361</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>66890.21163361</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>64660.12083361</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>63474.97623361</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>62289.83153361001</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>62291.83153361001</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>62291.83153361001</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>62294.73153361001</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>65013.56174417</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>60879.29004417</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>60618.07214417</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>20368.83236209</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>23212.57648425001</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>23414.90328425001</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>23654.73878425001</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>23459.25858425</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>22596.06678425</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>25373.71941807</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>18792.30761807</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>29051.10361807</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>46501.10125604001</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>30791.70169424002</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>33251.79508312001</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>32392.22251275001</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>33209.05941275002</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>33332.69937318002</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>33098.15637318002</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>34051.91087318002</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>34130.45627318003</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>33903.50537318002</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>33913.14349438002</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>33481.52619438002</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>33492.52755593002</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>33754.43169438002</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>33571.89039438003</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>33216.47269106002</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>33177.05279106002</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>35007.97497057002</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>35007.97497057002</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>34493.44387057002</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>34489.67067057002</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>33457.37077057002</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>27542.66027057002</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>25014.21207057002</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>25014.21207057002</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>25700.32787057002</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>24735.45367057002</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>25061.80327057002</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -13750,7 +13750,7 @@
         <v>25058.53407057003</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -13915,7 +13915,7 @@
         <v>3996.747870570025</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -17479,17 +17479,11 @@
         <v>-143356.1465181299</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>759.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17518,17 +17512,11 @@
         <v>-143356.1465181299</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17557,17 +17545,11 @@
         <v>-143564.8429621099</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17596,17 +17578,11 @@
         <v>-143683.9768621099</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>758.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17635,17 +17611,11 @@
         <v>-140759.5442621099</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>752</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17674,17 +17644,11 @@
         <v>-138836.8999621099</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17713,17 +17677,11 @@
         <v>-140154.4353621099</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>761.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17752,17 +17710,11 @@
         <v>-139703.9679621099</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>757.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17791,17 +17743,11 @@
         <v>-144802.5176621099</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>773.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17834,11 +17780,7 @@
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17871,11 +17813,7 @@
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +17846,7 @@
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17945,11 +17879,7 @@
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17982,11 +17912,7 @@
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18019,11 +17945,7 @@
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18056,11 +17978,7 @@
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18089,17 +18007,11 @@
         <v>-147599.0284621099</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18132,11 +18044,7 @@
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18169,11 +18077,7 @@
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18206,11 +18110,7 @@
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18243,11 +18143,7 @@
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18280,11 +18176,7 @@
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18317,11 +18209,7 @@
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18354,11 +18242,7 @@
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18391,11 +18275,7 @@
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18428,11 +18308,7 @@
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18465,11 +18341,7 @@
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18502,11 +18374,7 @@
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18539,11 +18407,7 @@
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18576,11 +18440,7 @@
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18613,11 +18473,7 @@
       </c>
       <c r="I548" t="inlineStr"/>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18650,11 +18506,7 @@
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18687,11 +18539,7 @@
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18724,11 +18572,7 @@
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18761,11 +18605,7 @@
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18798,11 +18638,7 @@
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18835,11 +18671,7 @@
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18872,11 +18704,7 @@
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18909,11 +18737,7 @@
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18946,11 +18770,7 @@
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18983,11 +18803,7 @@
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19020,11 +18836,7 @@
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19057,11 +18869,7 @@
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19094,11 +18902,7 @@
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19131,11 +18935,7 @@
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19168,11 +18968,7 @@
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19205,11 +19001,7 @@
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19242,11 +19034,7 @@
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19279,11 +19067,7 @@
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19316,11 +19100,7 @@
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19353,11 +19133,7 @@
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19390,11 +19166,7 @@
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19427,11 +19199,7 @@
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -19464,11 +19232,7 @@
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -19501,11 +19265,7 @@
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19538,11 +19298,7 @@
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19575,11 +19331,7 @@
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19612,11 +19364,7 @@
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19649,11 +19397,7 @@
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19686,11 +19430,7 @@
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19723,11 +19463,7 @@
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19760,11 +19496,7 @@
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19797,11 +19529,7 @@
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19834,11 +19562,7 @@
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19871,11 +19595,7 @@
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19908,11 +19628,7 @@
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19945,11 +19661,7 @@
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19982,11 +19694,7 @@
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20019,11 +19727,7 @@
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20056,11 +19760,7 @@
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20093,11 +19793,7 @@
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20130,11 +19826,7 @@
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20163,17 +19855,11 @@
         <v>-160172.9385888499</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>771.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20202,17 +19888,11 @@
         <v>-160106.9385888499</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>765.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -20241,17 +19921,11 @@
         <v>-161446.9385888499</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>766.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20280,17 +19954,11 @@
         <v>-161425.9734888499</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>762.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20319,17 +19987,11 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20358,17 +20020,11 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20397,17 +20053,11 @@
         <v>-169476.4773888499</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>762</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20436,17 +20086,11 @@
         <v>-168477.9868963999</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>755.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20475,17 +20119,11 @@
         <v>-168427.9868963999</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>768.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20518,11 +20156,7 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20555,11 +20189,7 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20592,11 +20222,7 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20625,17 +20251,11 @@
         <v>-169201.8695963999</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20664,17 +20284,11 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20703,17 +20317,11 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20742,17 +20350,11 @@
         <v>-168040.9081963999</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20785,11 +20387,7 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20822,11 +20420,7 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20855,17 +20449,11 @@
         <v>-170076.8787963999</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>758.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20894,17 +20482,11 @@
         <v>-168506.8787963999</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20933,17 +20515,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>758.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20972,17 +20548,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>758.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21011,17 +20581,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>758.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21050,17 +20614,11 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>758.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21089,17 +20647,11 @@
         <v>-168502.4256963999</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>758.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21128,17 +20680,11 @@
         <v>-168503.4256963999</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>765.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21167,17 +20713,11 @@
         <v>-169288.4256963999</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>759.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21206,17 +20746,11 @@
         <v>-169227.8769963999</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
-      </c>
-      <c r="I617" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -21245,17 +20779,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>764.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -21284,17 +20812,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -21323,17 +20845,11 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -21362,17 +20878,11 @@
         <v>-172021.4564963999</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>759</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -21401,17 +20911,11 @@
         <v>-172124.4564963999</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>755.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -21448,7 +20952,7 @@
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -21557,11 +21061,9 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
-      </c>
-      <c r="I626" t="n">
-        <v>762.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
@@ -21596,11 +21098,9 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
-      </c>
-      <c r="I627" t="n">
-        <v>762.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21635,11 +21135,9 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
-      </c>
-      <c r="I628" t="n">
-        <v>754.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21674,11 +21172,9 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
-      </c>
-      <c r="I629" t="n">
-        <v>754.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21713,11 +21209,9 @@
         <v>-170835.1996963999</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
-      </c>
-      <c r="I630" t="n">
-        <v>754.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21752,11 +21246,9 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
-      </c>
-      <c r="I631" t="n">
-        <v>755.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21791,11 +21283,9 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
-      </c>
-      <c r="I632" t="n">
-        <v>755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21830,11 +21320,9 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
-      </c>
-      <c r="I633" t="n">
-        <v>755</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21869,11 +21357,9 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H634" t="n">
-        <v>1</v>
-      </c>
-      <c r="I634" t="n">
-        <v>764.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21908,11 +21394,9 @@
         <v>-168390.9035963998</v>
       </c>
       <c r="H635" t="n">
-        <v>1</v>
-      </c>
-      <c r="I635" t="n">
-        <v>764.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -22872,11 +22356,9 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -23429,18 +22911,16 @@
         <v>-153721.5463312098</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
+      <c r="L676" t="inlineStr"/>
       <c r="M676" t="inlineStr"/>
     </row>
     <row r="677">
@@ -23470,11 +22950,7 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -23503,15 +22979,11 @@
         <v>-151325.8591312098</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23544,11 +23016,7 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23581,11 +23049,7 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23618,11 +23082,7 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23655,11 +23115,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23688,17 +23144,11 @@
         <v>-151378.6269312098</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>766.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23731,11 +23181,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23768,11 +23214,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23805,11 +23247,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23842,11 +23280,7 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23879,11 +23313,7 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23912,17 +23342,11 @@
         <v>-148571.9932617398</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23955,11 +23379,7 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23992,11 +23412,7 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24029,11 +23445,7 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24066,11 +23478,7 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -24103,11 +23511,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -24140,11 +23544,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -24177,11 +23577,7 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24214,11 +23610,7 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24251,11 +23643,7 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24288,11 +23676,7 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24325,11 +23709,7 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24362,11 +23742,7 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24399,11 +23775,7 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24436,11 +23808,7 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24473,11 +23841,7 @@
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24510,11 +23874,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24543,17 +23903,11 @@
         <v>-155850.2746617398</v>
       </c>
       <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>764</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24586,11 +23940,7 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24623,11 +23973,7 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24660,11 +24006,7 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24697,11 +24039,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24734,11 +24072,7 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24771,11 +24105,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24808,11 +24138,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24845,11 +24171,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24882,11 +24204,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24919,11 +24237,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24956,11 +24270,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24989,17 +24299,11 @@
         <v>-155794.5636617398</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25028,17 +24332,11 @@
         <v>-155693.5636617398</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25067,17 +24365,11 @@
         <v>-156975.0607064097</v>
       </c>
       <c r="H720" t="n">
-        <v>1</v>
-      </c>
-      <c r="I720" t="n">
-        <v>761.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25106,17 +24398,11 @@
         <v>-156975.0607064097</v>
       </c>
       <c r="H721" t="n">
-        <v>1</v>
-      </c>
-      <c r="I721" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25145,17 +24431,11 @@
         <v>-157475.0607064097</v>
       </c>
       <c r="H722" t="n">
-        <v>1</v>
-      </c>
-      <c r="I722" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25184,17 +24464,11 @@
         <v>-156422.6881064097</v>
       </c>
       <c r="H723" t="n">
-        <v>1</v>
-      </c>
-      <c r="I723" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25223,17 +24497,11 @@
         <v>-156421.2881064097</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25266,11 +24534,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25299,17 +24563,11 @@
         <v>-156422.2166064098</v>
       </c>
       <c r="H726" t="n">
-        <v>1</v>
-      </c>
-      <c r="I726" t="n">
-        <v>763</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25342,11 +24600,7 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25379,11 +24633,7 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25416,11 +24666,7 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25453,11 +24699,7 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25490,11 +24732,7 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25527,11 +24765,7 @@
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25564,11 +24798,7 @@
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -25597,17 +24827,11 @@
         <v>-157344.8359064098</v>
       </c>
       <c r="H734" t="n">
-        <v>1</v>
-      </c>
-      <c r="I734" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25636,17 +24860,11 @@
         <v>-159656.0553064098</v>
       </c>
       <c r="H735" t="n">
-        <v>1</v>
-      </c>
-      <c r="I735" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25675,17 +24893,11 @@
         <v>-163888.5685064098</v>
       </c>
       <c r="H736" t="n">
-        <v>1</v>
-      </c>
-      <c r="I736" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25714,17 +24926,11 @@
         <v>-168420.8874064098</v>
       </c>
       <c r="H737" t="n">
-        <v>1</v>
-      </c>
-      <c r="I737" t="n">
-        <v>758</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25753,17 +24959,11 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H738" t="n">
-        <v>1</v>
-      </c>
-      <c r="I738" t="n">
-        <v>757.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25796,11 +24996,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25829,17 +25025,11 @@
         <v>-167054.7280064098</v>
       </c>
       <c r="H740" t="n">
-        <v>1</v>
-      </c>
-      <c r="I740" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25872,11 +25062,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25909,11 +25095,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25942,17 +25124,11 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H743" t="n">
-        <v>1</v>
-      </c>
-      <c r="I743" t="n">
-        <v>760.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25981,17 +25157,11 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H744" t="n">
-        <v>1</v>
-      </c>
-      <c r="I744" t="n">
-        <v>760.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26020,17 +25190,11 @@
         <v>-166408.3377064098</v>
       </c>
       <c r="H745" t="n">
-        <v>1</v>
-      </c>
-      <c r="I745" t="n">
-        <v>760.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26059,17 +25223,11 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H746" t="n">
-        <v>1</v>
-      </c>
-      <c r="I746" t="n">
-        <v>758.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26098,17 +25256,11 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H747" t="n">
-        <v>1</v>
-      </c>
-      <c r="I747" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26141,11 +25293,7 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26174,17 +25322,11 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H749" t="n">
-        <v>1</v>
-      </c>
-      <c r="I749" t="n">
-        <v>760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26213,17 +25355,11 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H750" t="n">
-        <v>1</v>
-      </c>
-      <c r="I750" t="n">
-        <v>761.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26252,17 +25388,11 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H751" t="n">
-        <v>1</v>
-      </c>
-      <c r="I751" t="n">
-        <v>761.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26291,17 +25421,11 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H752" t="n">
-        <v>1</v>
-      </c>
-      <c r="I752" t="n">
-        <v>762.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26330,17 +25454,11 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H753" t="n">
-        <v>1</v>
-      </c>
-      <c r="I753" t="n">
-        <v>762.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26369,17 +25487,11 @@
         <v>-160623.6516064098</v>
       </c>
       <c r="H754" t="n">
-        <v>1</v>
-      </c>
-      <c r="I754" t="n">
-        <v>762.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26408,17 +25520,11 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H755" t="n">
-        <v>1</v>
-      </c>
-      <c r="I755" t="n">
-        <v>761.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26447,17 +25553,11 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H756" t="n">
-        <v>1</v>
-      </c>
-      <c r="I756" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26486,17 +25586,11 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H757" t="n">
-        <v>1</v>
-      </c>
-      <c r="I757" t="n">
-        <v>761</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26525,17 +25619,11 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H758" t="n">
-        <v>1</v>
-      </c>
-      <c r="I758" t="n">
-        <v>765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26564,17 +25652,11 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H759" t="n">
-        <v>1</v>
-      </c>
-      <c r="I759" t="n">
-        <v>765</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26603,17 +25685,11 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H760" t="n">
-        <v>1</v>
-      </c>
-      <c r="I760" t="n">
-        <v>766</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26646,11 +25722,7 @@
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26683,11 +25755,7 @@
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26720,11 +25788,7 @@
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26757,11 +25821,7 @@
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26794,11 +25854,7 @@
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26831,11 +25887,7 @@
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26864,17 +25916,11 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>767.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26903,23 +25949,17 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H768" t="n">
-        <v>1</v>
-      </c>
-      <c r="I768" t="n">
-        <v>764.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
       <c r="M768" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-19 BackTest BCD.xlsx
+++ b/BackTest/2020-01-19 BackTest BCD.xlsx
@@ -451,7 +451,7 @@
         <v>8603.539803749996</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>8144.908903749996</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>18765.27200375</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>18900.86580375</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1561.848946739997</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>5123.526446739997</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>14519.48054888</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>28853.58969167</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>32305.67214888</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>28759.06590609</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>26760.06810609</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>27579.93180609</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>27445.83180609</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>28580.3317633</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>34794.28246433999</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>43551.56943313999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>39445.08841908</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>59610.38165385</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>53771.97665988</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>53573.85525988</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>68014.40415988</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>65514.40415988</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>65448.25235988</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>63457.34705988</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>66490.2180587</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>64158.18565870001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>59393.54253361001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>65586.66533361001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>67666.66533361001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>65535.12093361001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>61973.64523361001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>61034.20523361001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>61584.57513361001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>60701.22413361001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>62831.83643361001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>62690.81303361001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>62584.80343361001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>65622.02153361001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>64752.52723361001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>64753.15033361001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>20368.83236209</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>26558.41308425001</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>23212.57648425001</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>23414.90328425001</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>23349.88378425001</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>23654.73878425001</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>24632.05158425001</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>23459.25858425</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>23956.90398425001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>22596.06678425</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>25373.71941807</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>26918.58831807</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>18792.30761807</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>29067.97871807</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>29051.10361807</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>29834.28601807</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>33903.50537318002</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>33913.14349438002</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>33492.52755593002</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>33754.43169438002</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>34085.89039438003</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>33571.89039438003</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>33316.89039438003</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>33240.89039438003</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -19921,11 +19921,17 @@
         <v>-161446.9385888499</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>766.2</v>
+      </c>
       <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -19954,11 +19960,17 @@
         <v>-161425.9734888499</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>762.1</v>
+      </c>
       <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -19987,11 +19999,17 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>763</v>
+      </c>
       <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20020,11 +20038,17 @@
         <v>-161645.4556888499</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>762</v>
+      </c>
       <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20053,11 +20077,17 @@
         <v>-169476.4773888499</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>762</v>
+      </c>
       <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20090,7 +20120,11 @@
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20123,7 +20157,11 @@
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20156,7 +20194,11 @@
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20189,7 +20231,11 @@
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20222,7 +20268,11 @@
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20255,7 +20305,11 @@
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20284,11 +20338,17 @@
         <v>-167864.7131963999</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20321,7 +20381,11 @@
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20354,7 +20418,11 @@
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20387,7 +20455,11 @@
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20420,7 +20492,11 @@
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20453,7 +20529,11 @@
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20486,7 +20566,11 @@
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20519,7 +20603,11 @@
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20552,7 +20640,11 @@
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20581,11 +20673,17 @@
         <v>-168503.0787963999</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
-      </c>
-      <c r="I612" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I612" t="n">
+        <v>758.2</v>
+      </c>
       <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20618,7 +20716,11 @@
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20651,7 +20753,11 @@
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20684,7 +20790,11 @@
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20717,7 +20827,11 @@
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20750,7 +20864,11 @@
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20779,11 +20897,17 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
-      </c>
-      <c r="I618" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I618" t="n">
+        <v>764.9</v>
+      </c>
       <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20812,11 +20936,17 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
-      </c>
-      <c r="I619" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I619" t="n">
+        <v>759</v>
+      </c>
       <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20845,11 +20975,17 @@
         <v>-169277.8769963999</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
-      </c>
-      <c r="I620" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I620" t="n">
+        <v>759</v>
+      </c>
       <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20878,11 +21014,17 @@
         <v>-172021.4564963999</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
-      </c>
-      <c r="I621" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I621" t="n">
+        <v>759</v>
+      </c>
       <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20915,7 +21057,11 @@
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20952,7 +21098,7 @@
       <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L623" t="n">
@@ -21022,11 +21168,9 @@
         <v>-169020.5115963999</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
-      </c>
-      <c r="I625" t="n">
-        <v>762.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
@@ -21098,9 +21242,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
-      </c>
-      <c r="I627" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I627" t="n">
+        <v>762.6</v>
+      </c>
       <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
@@ -21135,9 +21281,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
-      </c>
-      <c r="I628" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I628" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
@@ -21172,9 +21320,11 @@
         <v>-172418.9910963998</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
-      </c>
-      <c r="I629" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I629" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
@@ -21209,9 +21359,11 @@
         <v>-170835.1996963999</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>754.8</v>
+      </c>
       <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
@@ -21246,9 +21398,11 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>755.1</v>
+      </c>
       <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
@@ -21283,9 +21437,11 @@
         <v>-171461.4340963998</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>755</v>
+      </c>
       <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
@@ -21320,9 +21476,11 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>755</v>
+      </c>
       <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
@@ -21357,9 +21515,11 @@
         <v>-170941.4340963998</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>764.6</v>
+      </c>
       <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
@@ -21394,9 +21554,11 @@
         <v>-168390.9035963998</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
-      </c>
-      <c r="I635" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I635" t="n">
+        <v>764.6</v>
+      </c>
       <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
@@ -21431,9 +21593,11 @@
         <v>-165921.5489240398</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
-      </c>
-      <c r="I636" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I636" t="n">
+        <v>765.9</v>
+      </c>
       <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
@@ -21468,9 +21632,11 @@
         <v>-165921.5489240398</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>769.6</v>
+      </c>
       <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
@@ -21801,9 +21967,11 @@
         <v>-165938.1994240399</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
-      </c>
-      <c r="I646" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I646" t="n">
+        <v>764</v>
+      </c>
       <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
@@ -21838,9 +22006,11 @@
         <v>-165739.7424240399</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
-      </c>
-      <c r="I647" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I647" t="n">
+        <v>764</v>
+      </c>
       <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
@@ -22023,9 +22193,11 @@
         <v>-168139.4286157699</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
-      </c>
-      <c r="I652" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I652" t="n">
+        <v>762</v>
+      </c>
       <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
@@ -22060,9 +22232,11 @@
         <v>-166565.1777157699</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
-      </c>
-      <c r="I653" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I653" t="n">
+        <v>762</v>
+      </c>
       <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
@@ -22097,9 +22271,11 @@
         <v>-166565.1777157699</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
-      </c>
-      <c r="I654" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I654" t="n">
+        <v>776.6</v>
+      </c>
       <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
@@ -22134,9 +22310,11 @@
         <v>-166844.6465054599</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I655" t="n">
+        <v>776.6</v>
+      </c>
       <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
@@ -22171,9 +22349,11 @@
         <v>-167427.9511054599</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
-      </c>
-      <c r="I656" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I656" t="n">
+        <v>762</v>
+      </c>
       <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
@@ -22208,9 +22388,11 @@
         <v>-167300.1957054599</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>761</v>
+      </c>
       <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
@@ -22245,9 +22427,11 @@
         <v>-167630.8599054599</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
-      </c>
-      <c r="I658" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I658" t="n">
+        <v>762</v>
+      </c>
       <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
@@ -22282,9 +22466,11 @@
         <v>-167891.1309054599</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>761</v>
+      </c>
       <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
@@ -22319,9 +22505,11 @@
         <v>-167891.1309054599</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>760</v>
+      </c>
       <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
@@ -22356,9 +22544,11 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>760</v>
+      </c>
       <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
@@ -22393,9 +22583,11 @@
         <v>-165850.6504054599</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>767.8</v>
+      </c>
       <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
@@ -22430,9 +22622,11 @@
         <v>-165981.0965312099</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>767.8</v>
+      </c>
       <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
@@ -22467,9 +22661,11 @@
         <v>-166027.5398312099</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>766.6</v>
+      </c>
       <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
@@ -22504,9 +22700,11 @@
         <v>-165492.7963312099</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>760.6</v>
+      </c>
       <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
@@ -22541,9 +22739,11 @@
         <v>-163486.5975312098</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>766</v>
+      </c>
       <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
@@ -22578,9 +22778,11 @@
         <v>-161114.8236312098</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>766.6</v>
+      </c>
       <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
@@ -22615,9 +22817,11 @@
         <v>-162746.9180312098</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>773</v>
+      </c>
       <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
@@ -22652,9 +22856,11 @@
         <v>-159633.9204312098</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>761</v>
+      </c>
       <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
@@ -22689,9 +22895,11 @@
         <v>-155729.7433312098</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>775</v>
+      </c>
       <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
@@ -22911,16 +23119,18 @@
         <v>-153721.5463312098</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
       <c r="M676" t="inlineStr"/>
     </row>
     <row r="677">
@@ -22950,7 +23160,11 @@
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
-      <c r="K677" t="inlineStr"/>
+      <c r="K677" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -22979,11 +23193,15 @@
         <v>-151325.8591312098</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
-      <c r="K678" t="inlineStr"/>
+      <c r="K678" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -23016,7 +23234,11 @@
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
-      <c r="K679" t="inlineStr"/>
+      <c r="K679" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -23049,7 +23271,11 @@
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
-      <c r="K680" t="inlineStr"/>
+      <c r="K680" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -23082,7 +23308,11 @@
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
-      <c r="K681" t="inlineStr"/>
+      <c r="K681" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -23115,7 +23345,11 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
-      <c r="K682" t="inlineStr"/>
+      <c r="K682" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -23148,7 +23382,11 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
-      <c r="K683" t="inlineStr"/>
+      <c r="K683" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -23181,7 +23419,11 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
-      <c r="K684" t="inlineStr"/>
+      <c r="K684" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -23214,7 +23456,11 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
-      <c r="K685" t="inlineStr"/>
+      <c r="K685" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -23247,7 +23493,11 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
-      <c r="K686" t="inlineStr"/>
+      <c r="K686" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -23280,7 +23530,11 @@
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
-      <c r="K687" t="inlineStr"/>
+      <c r="K687" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -23313,7 +23567,11 @@
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
-      <c r="K688" t="inlineStr"/>
+      <c r="K688" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -23346,7 +23604,11 @@
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
-      <c r="K689" t="inlineStr"/>
+      <c r="K689" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -23379,7 +23641,11 @@
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
-      <c r="K690" t="inlineStr"/>
+      <c r="K690" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -23412,7 +23678,11 @@
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
-      <c r="K691" t="inlineStr"/>
+      <c r="K691" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -23445,7 +23715,11 @@
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
-      <c r="K692" t="inlineStr"/>
+      <c r="K692" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -23478,7 +23752,11 @@
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
-      <c r="K693" t="inlineStr"/>
+      <c r="K693" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -23511,7 +23789,11 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
-      <c r="K694" t="inlineStr"/>
+      <c r="K694" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -23544,7 +23826,11 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
-      <c r="K695" t="inlineStr"/>
+      <c r="K695" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -23577,7 +23863,11 @@
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
-      <c r="K696" t="inlineStr"/>
+      <c r="K696" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -23610,7 +23900,11 @@
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
-      <c r="K697" t="inlineStr"/>
+      <c r="K697" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -23643,7 +23937,11 @@
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23676,7 +23974,11 @@
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23709,7 +24011,11 @@
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23742,7 +24048,11 @@
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23775,7 +24085,11 @@
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23808,7 +24122,11 @@
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23837,11 +24155,17 @@
         <v>-156314.5429617398</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>757</v>
+      </c>
       <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23870,11 +24194,17 @@
         <v>-155504.9046617398</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>758</v>
+      </c>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr"/>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -23907,7 +24237,11 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23940,7 +24274,11 @@
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -23973,7 +24311,11 @@
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr"/>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -24006,7 +24348,11 @@
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24035,11 +24381,17 @@
         <v>-154456.6403617398</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>761</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24068,11 +24420,17 @@
         <v>-154456.6403617398</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>761</v>
+      </c>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24105,7 +24463,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24138,7 +24500,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24171,7 +24537,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24204,7 +24574,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24237,7 +24611,11 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24270,7 +24648,11 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24303,7 +24685,11 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24336,7 +24722,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24369,7 +24759,11 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24402,7 +24796,11 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24435,7 +24833,11 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24468,7 +24870,11 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24501,7 +24907,11 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24534,7 +24944,11 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24567,7 +24981,11 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24600,7 +25018,11 @@
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24633,7 +25055,11 @@
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24666,7 +25092,11 @@
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24699,7 +25129,11 @@
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24732,7 +25166,11 @@
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -24761,11 +25199,17 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>763</v>
+      </c>
       <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -24794,11 +25238,17 @@
         <v>-158517.7458064098</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>760</v>
+      </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24827,11 +25277,17 @@
         <v>-157344.8359064098</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>760</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -24860,11 +25316,17 @@
         <v>-159656.0553064098</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -24893,11 +25355,17 @@
         <v>-163888.5685064098</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>760</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -24926,11 +25394,17 @@
         <v>-168420.8874064098</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>758</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -24959,11 +25433,17 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>757.1</v>
+      </c>
       <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -24992,11 +25472,17 @@
         <v>-167055.9914064098</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25025,11 +25511,17 @@
         <v>-167054.7280064098</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -25058,11 +25550,17 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>760.5</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25091,11 +25589,17 @@
         <v>-167306.8836064098</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25124,11 +25628,17 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>760.1</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25157,11 +25667,17 @@
         <v>-166298.4592064098</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>760.5</v>
+      </c>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25190,11 +25706,17 @@
         <v>-166408.3377064098</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>760.5</v>
+      </c>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25223,11 +25745,17 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>758.1</v>
+      </c>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25256,11 +25784,17 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>760</v>
+      </c>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25289,11 +25823,17 @@
         <v>-160873.1707064098</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>760</v>
+      </c>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25322,11 +25862,17 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>760</v>
+      </c>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25355,11 +25901,17 @@
         <v>-160648.8755064098</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>761.9</v>
+      </c>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25388,11 +25940,17 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>761.9</v>
+      </c>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25421,11 +25979,17 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>762.3</v>
+      </c>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25454,11 +26018,17 @@
         <v>-160601.9162064098</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>762.3</v>
+      </c>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25487,11 +26057,17 @@
         <v>-160623.6516064098</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>762.3</v>
+      </c>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25520,11 +26096,17 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>761.9</v>
+      </c>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25553,11 +26135,17 @@
         <v>-161417.8419064098</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>761</v>
+      </c>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25586,11 +26174,17 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>761</v>
+      </c>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25619,11 +26213,17 @@
         <v>-160377.8419064098</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>765</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25652,11 +26252,17 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>765</v>
+      </c>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25685,11 +26291,17 @@
         <v>-160317.8419064098</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>766</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25718,11 +26330,17 @@
         <v>-160316.4419064098</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>766</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25751,11 +26369,17 @@
         <v>-160315.4419064098</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>770.9</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25784,11 +26408,17 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>772.9</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25817,11 +26447,17 @@
         <v>-160342.8790064098</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>767.3</v>
+      </c>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25850,11 +26486,17 @@
         <v>-160422.8790064098</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>767.3</v>
+      </c>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25883,11 +26525,17 @@
         <v>-160337.6790064098</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>765.2</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25916,11 +26564,17 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
-      </c>
-      <c r="I767" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>767.2</v>
+      </c>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25949,11 +26603,17 @@
         <v>-160382.0083064098</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>764.2</v>
+      </c>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
